--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd11e1a73c022439a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rda648bd5b2df43ba"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rda648bd5b2df43ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd5d1dc71b5eb48dd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd5d1dc71b5eb48dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R0b4b4081cdab4293"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R0b4b4081cdab4293"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Raa0d2e74a7cc45b6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,17 +28,17 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -51,13 +51,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="F0F0F0"/>
+        <x:fgColor rgb="FFF0F0F0"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Raa0d2e74a7cc45b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R13c36801c3d14393"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R13c36801c3d14393"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R52f5db0b52b54cc0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R52f5db0b52b54cc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R5067073844be4f3d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R5067073844be4f3d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7992483c1b954282"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7992483c1b954282"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rf9dd8934e2334fe7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rf9dd8934e2334fe7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rb6f74d8ebacc49ca"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rb6f74d8ebacc49ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R01fe7838f89a40b1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R01fe7838f89a40b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R85ec4eaf73fa47f6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R85ec4eaf73fa47f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7472f7759eb64a14"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R7472f7759eb64a14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rc262cc561b8a405d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rc262cc561b8a405d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rf76017e3897e4517"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rf76017e3897e4517"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rb95ff4542b4b47e8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rb95ff4542b4b47e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R2492681ffbcf40bd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R2492681ffbcf40bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R83dfe089f224408d"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R83dfe089f224408d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R1f90288cfb124958"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R1f90288cfb124958"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R5536414ef69a478f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R5536414ef69a478f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R3d856e95f1d74540"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R3d856e95f1d74540"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R70f3d0f3f3b34cfb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R70f3d0f3f3b34cfb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R099a3f72bedc4eb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R099a3f72bedc4eb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R56d263a6dda74686"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R56d263a6dda74686"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd9aa638a172d40b2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd9aa638a172d40b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R9af15228f69141b2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R9af15228f69141b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R8f4f0a4d959641f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R8f4f0a4d959641f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rabd1d2dde99548e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rabd1d2dde99548e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd84c2ddcc6714fb6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd84c2ddcc6714fb6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R643761cda1334ffa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R643761cda1334ffa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R4893a7d7e5c84a15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R4893a7d7e5c84a15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rba0d02941ae94c85"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rba0d02941ae94c85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R38298cd2b0ff482e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R38298cd2b0ff482e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R4663e0df7a6a4b51"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R4663e0df7a6a4b51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R330b37d608894801"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R330b37d608894801"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R85b165aca4e14b71"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R85b165aca4e14b71"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd23887312ea945d7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd23887312ea945d7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd55e6663d3ff4935"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rd55e6663d3ff4935"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Ra4411d6d21ce42dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Ra4411d6d21ce42dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R165744b247c94599"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R165744b247c94599"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R26cfa9b0cf57401a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R26cfa9b0cf57401a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R3c48181ed0e34893"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R3c48181ed0e34893"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rc4a983e37b7a491e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rc4a983e37b7a491e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R256ba59c6271496f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/10_RowAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="R256ba59c6271496f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowAddition" sheetId="1" r:id="Rdd0fb6fe08244b2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
